--- a/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 21,01</t>
+          <t>14,38; 20,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,58</t>
+          <t>13,66; 18,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,74</t>
+          <t>14,73; 18,56</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,1</t>
+          <t>7,18; 9,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 31,14</t>
+          <t>8,95; 29,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 19,52</t>
+          <t>8,74; 18,86</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,45</t>
+          <t>5,27; 9,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,48</t>
+          <t>4,81; 8,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,29</t>
+          <t>5,49; 8,3</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,87</t>
+          <t>8,59; 11,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 22,31</t>
+          <t>10,02; 23,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 16,65</t>
+          <t>9,72; 16,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 20,93</t>
+          <t>14,66; 21,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 18,79</t>
+          <t>13,6; 18,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,73; 18,56</t>
+          <t>14,64; 18,74</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,99</t>
+          <t>7,18; 10,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 29,01</t>
+          <t>9,05; 31,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 18,86</t>
+          <t>8,64; 19,52</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,65</t>
+          <t>4,97; 9,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,45</t>
+          <t>4,97; 8,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 8,3</t>
+          <t>5,52; 8,29</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,12</t>
+          <t>8,54; 10,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 23,1</t>
+          <t>9,97; 22,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,57</t>
+          <t>9,77; 16,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>15,81%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 21,01</t>
+          <t>13,94; 20,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,58</t>
+          <t>13,16; 17,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 18,74</t>
+          <t>14,12; 17,88</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>12,34%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,1</t>
+          <t>5,29; 9,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 31,14</t>
+          <t>8,36; 44,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 19,52</t>
+          <t>7,68; 26,38</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,45</t>
+          <t>4,85; 9,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,48</t>
+          <t>4,97; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,29</t>
+          <t>5,41; 8,16</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,92%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,87</t>
+          <t>6,76; 10,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 22,31</t>
+          <t>9,43; 30,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 16,65</t>
+          <t>9,05; 21,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 20,09</t>
+          <t>13,82; 20,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 17,78</t>
+          <t>13,25; 17,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,12; 17,88</t>
+          <t>14,15; 17,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,31</t>
+          <t>5,42; 9,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 44,26</t>
+          <t>8,31; 40,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 26,38</t>
+          <t>7,81; 27,88</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,25</t>
+          <t>4,85; 9,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,43</t>
+          <t>4,9; 8,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,16</t>
+          <t>5,38; 8,29</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,14</t>
+          <t>6,74; 10,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 30,7</t>
+          <t>9,34; 29,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 21,27</t>
+          <t>9,01; 21,58</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>85586</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>115160</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>200746</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>71184; 103960</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100010; 134598</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>179642; 226289</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>175373</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>383269</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>558642</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>124013; 213197</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>185940; 909007</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>353519; 1261966</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44814</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42390</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>87204</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31349; 61141</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32304; 55373</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>70176; 108257</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>305774</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>540819</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>846593</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>232524; 350497</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>340996; 1093049</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>639916; 1532409</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>